--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\endo-learn\PDiCCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80873F2-01C4-49D8-84A5-0D5367A1434D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24915" windowHeight="11835"/>
+    <workbookView xWindow="10905" yWindow="885" windowWidth="16890" windowHeight="15075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PDiCCpDoC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -174,6 +181,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -268,6 +276,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -303,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,24 +520,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.73046875" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -503,54 +545,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -558,28 +600,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -587,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -595,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -603,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -611,23 +653,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -635,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -643,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -651,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -659,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -667,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -675,15 +717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -691,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -699,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>

--- a/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\endo-learn\PDiCCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\PDiCCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80873F2-01C4-49D8-84A5-0D5367A1434D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="885" windowWidth="16890" windowHeight="15075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="24915" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="PDiCCpDoC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,12 +145,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -181,7 +174,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -276,23 +268,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -328,23 +303,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,24 +478,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,54 +503,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -600,28 +558,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -629,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -637,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -645,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -653,23 +611,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -677,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -685,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -693,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -701,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -709,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -717,15 +675,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -733,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -741,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>22</v>
       </c>
